--- a/Tools/tank_info.xlsx
+++ b/Tools/tank_info.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -554,7 +554,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>5</v>

--- a/Tools/tank_info.xlsx
+++ b/Tools/tank_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>prefabs/tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探测距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detection_len</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -489,10 +501,11 @@
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +521,11 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -525,8 +541,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -542,8 +561,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -557,6 +579,9 @@
         <v>3</v>
       </c>
       <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
     </row>
